--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Btc-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Btc-Erbb3.xlsx
@@ -546,40 +546,40 @@
         <v>1.389545</v>
       </c>
       <c r="I2">
-        <v>0.0739295519144354</v>
+        <v>0.3800727954645477</v>
       </c>
       <c r="J2">
-        <v>0.1069412678644624</v>
+        <v>0.47906870267432</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1640393333333333</v>
+        <v>0.07487166666666667</v>
       </c>
       <c r="N2">
-        <v>0.492118</v>
+        <v>0.224615</v>
       </c>
       <c r="O2">
-        <v>0.02017083634918183</v>
+        <v>0.01287435003490057</v>
       </c>
       <c r="P2">
-        <v>0.02777954494355415</v>
+        <v>0.01655871537719798</v>
       </c>
       <c r="Q2">
-        <v>0.07598001181222222</v>
+        <v>0.03467918335277778</v>
       </c>
       <c r="R2">
-        <v>0.68382010631</v>
+        <v>0.312112650175</v>
       </c>
       <c r="S2">
-        <v>0.001491220893034419</v>
+        <v>0.004893190207553757</v>
       </c>
       <c r="T2">
-        <v>0.002970779756961498</v>
+        <v>0.007932762293707547</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>1.389545</v>
       </c>
       <c r="I3">
-        <v>0.0739295519144354</v>
+        <v>0.3800727954645477</v>
       </c>
       <c r="J3">
-        <v>0.1069412678644624</v>
+        <v>0.47906870267432</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.45377</v>
       </c>
       <c r="O3">
-        <v>0.01859903602422231</v>
+        <v>0.02600892111095355</v>
       </c>
       <c r="P3">
-        <v>0.02561484056473563</v>
+        <v>0.03345212152666174</v>
       </c>
       <c r="Q3">
-        <v>0.0700593149611111</v>
+        <v>0.07005931496111112</v>
       </c>
       <c r="R3">
-        <v>0.6305338346499999</v>
+        <v>0.63053383465</v>
       </c>
       <c r="S3">
-        <v>0.001375018399311198</v>
+        <v>0.009885283353657005</v>
       </c>
       <c r="T3">
-        <v>0.002739283526138891</v>
+        <v>0.01602586446148153</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>1.389545</v>
       </c>
       <c r="I4">
-        <v>0.0739295519144354</v>
+        <v>0.3800727954645477</v>
       </c>
       <c r="J4">
-        <v>0.1069412678644624</v>
+        <v>0.47906870267432</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.524817</v>
+        <v>0.8000470000000001</v>
       </c>
       <c r="N4">
-        <v>1.574451</v>
+        <v>2.400141</v>
       </c>
       <c r="O4">
-        <v>0.06453328970044923</v>
+        <v>0.1375698656239178</v>
       </c>
       <c r="P4">
-        <v>0.0888761075919267</v>
+        <v>0.1769394371887155</v>
       </c>
       <c r="Q4">
-        <v>0.243085612755</v>
+        <v>0.3705671028716667</v>
       </c>
       <c r="R4">
-        <v>2.187770514795</v>
+        <v>3.335103925845</v>
       </c>
       <c r="S4">
-        <v>0.004770917191118661</v>
+        <v>0.05228656339936461</v>
       </c>
       <c r="T4">
-        <v>0.009504523628739015</v>
+        <v>0.08476614662592225</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>1.389545</v>
       </c>
       <c r="I5">
-        <v>0.0739295519144354</v>
+        <v>0.3800727954645477</v>
       </c>
       <c r="J5">
-        <v>0.1069412678644624</v>
+        <v>0.47906870267432</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.68238</v>
+        <v>3.881946</v>
       </c>
       <c r="N5">
-        <v>13.36476</v>
+        <v>7.763892</v>
       </c>
       <c r="O5">
-        <v>0.8216882540552003</v>
+        <v>0.6675092708044715</v>
       </c>
       <c r="P5">
-        <v>0.7544266844127117</v>
+        <v>0.5723574910282232</v>
       </c>
       <c r="Q5">
-        <v>3.0951559057</v>
+        <v>1.79804621819</v>
       </c>
       <c r="R5">
-        <v>18.5709354342</v>
+        <v>10.78827730914</v>
       </c>
       <c r="S5">
-        <v>0.06074704443565571</v>
+        <v>0.2537021145531573</v>
       </c>
       <c r="T5">
-        <v>0.08067934614187805</v>
+        <v>0.2741985606928196</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>1.389545</v>
       </c>
       <c r="I6">
-        <v>0.0739295519144354</v>
+        <v>0.3800727954645477</v>
       </c>
       <c r="J6">
-        <v>0.1069412678644624</v>
+        <v>0.47906870267432</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6100073333333333</v>
+        <v>0.9074473333333333</v>
       </c>
       <c r="N6">
-        <v>1.830022</v>
+        <v>2.722342</v>
       </c>
       <c r="O6">
-        <v>0.07500858387094646</v>
+        <v>0.1560375924257564</v>
       </c>
       <c r="P6">
-        <v>0.1033028224870719</v>
+        <v>0.2006922348792017</v>
       </c>
       <c r="Q6">
-        <v>0.2825442133322222</v>
+        <v>0.4203129682655555</v>
       </c>
       <c r="R6">
-        <v>2.54289791999</v>
+        <v>3.78281671439</v>
       </c>
       <c r="S6">
-        <v>0.005545350995315418</v>
+        <v>0.05930564395081498</v>
       </c>
       <c r="T6">
-        <v>0.01104733481074497</v>
+        <v>0.09614536860038907</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,46 +850,46 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>5.8019945</v>
+        <v>0.755484</v>
       </c>
       <c r="H7">
-        <v>11.603989</v>
+        <v>1.510968</v>
       </c>
       <c r="I7">
-        <v>0.9260704480855646</v>
+        <v>0.6199272045354524</v>
       </c>
       <c r="J7">
-        <v>0.8930587321355375</v>
+        <v>0.52093129732568</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1640393333333333</v>
+        <v>0.07487166666666667</v>
       </c>
       <c r="N7">
-        <v>0.492118</v>
+        <v>0.224615</v>
       </c>
       <c r="O7">
-        <v>0.02017083634918183</v>
+        <v>0.01287435003490057</v>
       </c>
       <c r="P7">
-        <v>0.02777954494355415</v>
+        <v>0.01655871537719798</v>
       </c>
       <c r="Q7">
-        <v>0.9517553097836667</v>
+        <v>0.05656434622000001</v>
       </c>
       <c r="R7">
-        <v>5.710531858702</v>
+        <v>0.33938607732</v>
       </c>
       <c r="S7">
-        <v>0.01867961545614741</v>
+        <v>0.007981159827346814</v>
       </c>
       <c r="T7">
-        <v>0.02480876518659266</v>
+        <v>0.008625953083490429</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.5</v>
       </c>
       <c r="G8">
-        <v>5.8019945</v>
+        <v>0.755484</v>
       </c>
       <c r="H8">
-        <v>11.603989</v>
+        <v>1.510968</v>
       </c>
       <c r="I8">
-        <v>0.9260704480855646</v>
+        <v>0.6199272045354524</v>
       </c>
       <c r="J8">
-        <v>0.8930587321355375</v>
+        <v>0.52093129732568</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,22 +936,22 @@
         <v>0.45377</v>
       </c>
       <c r="O8">
-        <v>0.01859903602422231</v>
+        <v>0.02600892111095355</v>
       </c>
       <c r="P8">
-        <v>0.02561484056473563</v>
+        <v>0.03345212152666174</v>
       </c>
       <c r="Q8">
-        <v>0.8775903480883332</v>
+        <v>0.11427199156</v>
       </c>
       <c r="R8">
-        <v>5.265542088529999</v>
+        <v>0.68563194936</v>
       </c>
       <c r="S8">
-        <v>0.01722401762491112</v>
+        <v>0.01612363775729654</v>
       </c>
       <c r="T8">
-        <v>0.02287555703859673</v>
+        <v>0.01742625706518021</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.5</v>
       </c>
       <c r="G9">
-        <v>5.8019945</v>
+        <v>0.755484</v>
       </c>
       <c r="H9">
-        <v>11.603989</v>
+        <v>1.510968</v>
       </c>
       <c r="I9">
-        <v>0.9260704480855646</v>
+        <v>0.6199272045354524</v>
       </c>
       <c r="J9">
-        <v>0.8930587321355375</v>
+        <v>0.52093129732568</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.524817</v>
+        <v>0.8000470000000001</v>
       </c>
       <c r="N9">
-        <v>1.574451</v>
+        <v>2.400141</v>
       </c>
       <c r="O9">
-        <v>0.06453328970044923</v>
+        <v>0.1375698656239178</v>
       </c>
       <c r="P9">
-        <v>0.0888761075919267</v>
+        <v>0.1769394371887155</v>
       </c>
       <c r="Q9">
-        <v>3.0449853475065</v>
+        <v>0.6044227077480001</v>
       </c>
       <c r="R9">
-        <v>18.269912085039</v>
+        <v>3.626536246488</v>
       </c>
       <c r="S9">
-        <v>0.05976237250933057</v>
+        <v>0.08528330222455316</v>
       </c>
       <c r="T9">
-        <v>0.07937158396318768</v>
+        <v>0.09217329056279322</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.5</v>
       </c>
       <c r="G10">
-        <v>5.8019945</v>
+        <v>0.755484</v>
       </c>
       <c r="H10">
-        <v>11.603989</v>
+        <v>1.510968</v>
       </c>
       <c r="I10">
-        <v>0.9260704480855646</v>
+        <v>0.6199272045354524</v>
       </c>
       <c r="J10">
-        <v>0.8930587321355375</v>
+        <v>0.52093129732568</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.68238</v>
+        <v>3.881946</v>
       </c>
       <c r="N10">
-        <v>13.36476</v>
+        <v>7.763892</v>
       </c>
       <c r="O10">
-        <v>0.8216882540552003</v>
+        <v>0.6675092708044715</v>
       </c>
       <c r="P10">
-        <v>0.7544266844127117</v>
+        <v>0.5723574910282232</v>
       </c>
       <c r="Q10">
-        <v>38.77113200691</v>
+        <v>2.932748091864</v>
       </c>
       <c r="R10">
-        <v>155.08452802764</v>
+        <v>11.730992367456</v>
       </c>
       <c r="S10">
-        <v>0.7609412096195446</v>
+        <v>0.4138071562513143</v>
       </c>
       <c r="T10">
-        <v>0.6737473382708336</v>
+        <v>0.2981589303354036</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>0.5</v>
       </c>
       <c r="G11">
-        <v>5.8019945</v>
+        <v>0.755484</v>
       </c>
       <c r="H11">
-        <v>11.603989</v>
+        <v>1.510968</v>
       </c>
       <c r="I11">
-        <v>0.9260704480855646</v>
+        <v>0.6199272045354524</v>
       </c>
       <c r="J11">
-        <v>0.8930587321355375</v>
+        <v>0.52093129732568</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6100073333333333</v>
+        <v>0.9074473333333333</v>
       </c>
       <c r="N11">
-        <v>1.830022</v>
+        <v>2.722342</v>
       </c>
       <c r="O11">
-        <v>0.07500858387094646</v>
+        <v>0.1560375924257564</v>
       </c>
       <c r="P11">
-        <v>0.1033028224870719</v>
+        <v>0.2006922348792017</v>
       </c>
       <c r="Q11">
-        <v>3.539259192959667</v>
+        <v>0.685561941176</v>
       </c>
       <c r="R11">
-        <v>21.235555157758</v>
+        <v>4.113371647056</v>
       </c>
       <c r="S11">
-        <v>0.06946323287563104</v>
+        <v>0.09673194847494146</v>
       </c>
       <c r="T11">
-        <v>0.09225548767632695</v>
+        <v>0.1045468662788126</v>
       </c>
     </row>
   </sheetData>
